--- a/medicine/Psychotrope/Société_québécoise_du_cannabis/Société_québécoise_du_cannabis.xlsx
+++ b/medicine/Psychotrope/Société_québécoise_du_cannabis/Société_québécoise_du_cannabis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_qu%C3%A9b%C3%A9coise_du_cannabis</t>
+          <t>Société_québécoise_du_cannabis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Société québécoise du cannabis (SQDC[2]) est une société d'État, filiale de la Société des alcools du Québec (SAQ), qui a pour mandat de gérer la vente du cannabis sur tout le territoire du Québec[3]. Cette société a été créée en prévision de la légalisation du cannabis au Canada, qui a pris effet le 17 octobre 2018[4]. Le 16 novembre 2017, le projet de loi 157 est déposé à l'Assemblée nationale du Québec, en vue de créer officiellement cette société[5]. Cette loi est adoptée le 12 juin 2018.
-Le gouvernement du Québec a ouvert douze succursales en 2018 pour gérer un marché évalué à environ 500 millions de dollars canadiens[6]. Les succursales sont reparties dans les villes de Montréal, Gatineau, Québec, Mascouche, Trois-Rivières, Drummondville, Mirabel, Saint-Jean-sur-Richelieu, Rimouski et Grande-Rivière.
-Le 25 avril 2022, la SQDC ouvre son 88e magasin[7].
+La Société québécoise du cannabis (SQDC) est une société d'État, filiale de la Société des alcools du Québec (SAQ), qui a pour mandat de gérer la vente du cannabis sur tout le territoire du Québec. Cette société a été créée en prévision de la légalisation du cannabis au Canada, qui a pris effet le 17 octobre 2018. Le 16 novembre 2017, le projet de loi 157 est déposé à l'Assemblée nationale du Québec, en vue de créer officiellement cette société. Cette loi est adoptée le 12 juin 2018.
+Le gouvernement du Québec a ouvert douze succursales en 2018 pour gérer un marché évalué à environ 500 millions de dollars canadiens. Les succursales sont reparties dans les villes de Montréal, Gatineau, Québec, Mascouche, Trois-Rivières, Drummondville, Mirabel, Saint-Jean-sur-Richelieu, Rimouski et Grande-Rivière.
+Le 25 avril 2022, la SQDC ouvre son 88e magasin.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_qu%C3%A9b%C3%A9coise_du_cannabis</t>
+          <t>Société_québécoise_du_cannabis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,18 +526,20 @@
           <t>Financement et revenus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En vertu de la Loi sur la Société des alcools du Québec, les revenus provenant de la vente de cannabis de la SQDC doivent être affectés aux fins suivantes[8]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En vertu de la Loi sur la Société des alcools du Québec, les revenus provenant de la vente de cannabis de la SQDC doivent être affectés aux fins suivantes:
 à la résorption de tout déficit que pourrait subir la SQDC;
 au virement que doit faire le ministre des Finances chaque année au Fonds de prévention et de recherche en matière de cannabis, et
 à la prévention de l'usage de substances psychoactives, de même que la lutte contre les méfaits qui s'y rapportent.
-Après 6 mois d'exploitation et l'ouverture de 12 points de vente, la société déplore un déficit de 4,9 millions de dollars canadien. Néanmoins pour son exercice financier terminant le 28 mars 2020, une amélioration de l'efficacité de la chaîne d'approvisionnement et une plus grande capacité de distribution permettent de dégager un bénéfice de 26,3 millions, un montant 30% supérieur aux prévisions[1].
-Avec un prix moyen de 7,64 $ le gramme de fleurs séchées, la SQDC présente les prix les plus bas au Canada pour le marché légal. En comparaison, le prix moyen des fournisseurs ontariens est de 10,64 $ le gramme[1]. À noter que la presque totalité des provinces canadiennes (dont l'Ontario) ont opté pour une privatisation du marché du cannabis.
-En 2020, 41 % des Canadiens âgés de plus de 16 ans consommant du cannabis ont acheté régulièrement des produits dans un des points de vente autorisés par le gouvernement. En 2021, ce taux est monté à 53 %[9].
-Quelques semaines après l'ouverture des premières boutiques, certains experts rapportent des irrégularités reliés à la qualité des produits (poids inférieur à celui indiqué, humidité trop basse)[10].
-La même année, une analyse est réalisée à l'aveugle sur cinq échantillons de cannabis par MB Labs (d), un laboratoire de Colombie-Britannique accrédité par Santé Canada. Deux de ces échantillons étaient issus du marché légal, trois du marché noir. Cette analyse a révélé que plusieurs échantillons provenant du marché noir contenaient soit des concentrations importantes de bactéries, ou des proportions importantes de pesticides. Sur les deux échantillons du marché légal, un contenait des traces de bactéries et le deuxième en était exempt[11].
-La concentration maximale des produits retrouvés à la SQDC est de 30%[12]. De plus, certains articles, tel les bonbons au cannabis, ou les vapoteuses au cannabis[13], ne sont pas disponibles au Québec[14]. Il s'agit d'une particularité du Québec, puisque ce genre de produit est actuellement légal au Canada[15].
+Après 6 mois d'exploitation et l'ouverture de 12 points de vente, la société déplore un déficit de 4,9 millions de dollars canadien. Néanmoins pour son exercice financier terminant le 28 mars 2020, une amélioration de l'efficacité de la chaîne d'approvisionnement et une plus grande capacité de distribution permettent de dégager un bénéfice de 26,3 millions, un montant 30% supérieur aux prévisions.
+Avec un prix moyen de 7,64 $ le gramme de fleurs séchées, la SQDC présente les prix les plus bas au Canada pour le marché légal. En comparaison, le prix moyen des fournisseurs ontariens est de 10,64 $ le gramme. À noter que la presque totalité des provinces canadiennes (dont l'Ontario) ont opté pour une privatisation du marché du cannabis.
+En 2020, 41 % des Canadiens âgés de plus de 16 ans consommant du cannabis ont acheté régulièrement des produits dans un des points de vente autorisés par le gouvernement. En 2021, ce taux est monté à 53 %.
+Quelques semaines après l'ouverture des premières boutiques, certains experts rapportent des irrégularités reliés à la qualité des produits (poids inférieur à celui indiqué, humidité trop basse).
+La même année, une analyse est réalisée à l'aveugle sur cinq échantillons de cannabis par MB Labs (d), un laboratoire de Colombie-Britannique accrédité par Santé Canada. Deux de ces échantillons étaient issus du marché légal, trois du marché noir. Cette analyse a révélé que plusieurs échantillons provenant du marché noir contenaient soit des concentrations importantes de bactéries, ou des proportions importantes de pesticides. Sur les deux échantillons du marché légal, un contenait des traces de bactéries et le deuxième en était exempt.
+La concentration maximale des produits retrouvés à la SQDC est de 30%. De plus, certains articles, tel les bonbons au cannabis, ou les vapoteuses au cannabis, ne sont pas disponibles au Québec. Il s'agit d'une particularité du Québec, puisque ce genre de produit est actuellement légal au Canada.
 </t>
         </is>
       </c>
